--- a/resources/samples/SampleMappings_19.xlsx
+++ b/resources/samples/SampleMappings_19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6013E963-1CB1-4B45-8D04-D2505BCDA7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411F953-D394-C44F-88BE-5D2F882DE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-31500" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7800" yWindow="-24100" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples Inbound" sheetId="1" r:id="rId1"/>
@@ -548,27 +548,6 @@
     <t>PROTOBUF_INTERNAL</t>
   </si>
   <si>
-    <t>mappingTopic:        protobuf/measurement
-mappingTopicSample:  protobuf/measurement
-check: Use external id
-sub:
-Defined in cumulocity-dynamic-mapper/dynamic-mapping-service/src/main/java/dynamic/mapping/processor/processor/fixed/StaticProtobufProcessor.java</t>
-  </si>
-  <si>
-    <t>Send message in protobuf format:
-option java_package = "mqtt.mapping.processor.protobuf";
-option java_outer_classname = "MeasurementProto";
-message CustomMeasurement {
-  int64 timestamp = 1;
-  float value = 2;
-  string unit = 3;
-  string externalIdType = 4;
-  string externalId = 5;
-  string measurementType = 6;
-}
-Use test client:  cumulocity-dynamic-mapper/dynamic-mapping-service/src/test/java/dynamic/mapping/ProtobufMqttClient.java</t>
-  </si>
-  <si>
     <t>{
     "c8y_GenericMeasurement": {
         "Module": {
@@ -581,49 +560,10 @@
 }</t>
   </si>
   <si>
-    <t>Use test client: cumulocity-dynamic-mapper/dynamic-mapping-service/src/test/java/dynamic/mapping/ProtobufMqttClient.java to create a new measurement for bus "berlin_01"</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>EXTENSION_SOURCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mappingTopic:        protobuf/event
-mappingTopicSample:  protobuf/event
-check: Use external id
-sub:
-Defined in cumulocity-dynamic-mapper/dynamic-mapping-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomEvent.java
-In selection: Extensions for PROCESSOR_EXTENSION
-choose:
-  dynamic-mapping-extension
-In selection: Events for dynamic-mapping-extension
-choose:
-  CustomEvent
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send message in protobuf format:
-syntax = "proto3";
-package processor.protobuf;
-option java_package = "mqtt.mapping.processor.extension.external";
-option java_outer_classname = "CustomEventOuter";
-message CustomEvent {
-  int64 timestamp = 1;
-  string txt = 2;
-  string unit = 3;
-  string externalIdType = 4;
-  string externalId = 5;
-  string eventType = 6;
-}
-Use test client:  cumulocity-dynamic-mapper/dynamic-mapping-extension/src/test/java/dynamic/mapping/ProtobufMqttClient.java
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Use test client: cumulocity-dynamic-mapper/dynamic-mapping-extension/src/test/java/dynamic/mapping/ProtobufMqttClient.java
-to create a new event for bus "berlin_01"</t>
   </si>
   <si>
     <t>16</t>
@@ -763,17 +703,6 @@
     <t>20</t>
   </si>
   <si>
-    <t xml:space="preserve">mappingTopic:       measurementExt
-mappingTopicSample: measurementExt
-mapppingType: Processor Extension Source
-check: Use external id
-sub:
-Extension for PROCESSOR_EXTENSION_SOURCE: dynamic-mapping-externsion
-Events for dynamic-mapping-extension: CustomMeasurement
-Defined in cumulocity-dynamic-mapper/dynamic-mapping-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomMeasurement.java
-</t>
-  </si>
-  <si>
     <t>{
      "temperature": 120.5,
      "unit": "Celsius",
@@ -899,17 +828,6 @@
   </si>
   <si>
     <t>EXTENSION_SOURCE_TARGET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mappingTopic:       extension/source_target
-mappingTopicSample: extension/source_target
-check: Use external id
-Extensions for Processor Extension Source Target:
-select 
-Events for:
-select
-Defined in cumulocity-dynamic-mapper/dynamic-mapping-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomAlarm.java
-</t>
   </si>
   <si>
     <t>{
@@ -1295,6 +1213,88 @@
 }
 the original payload would be just the cvs string to be send from the device:
 +RESP:GTFRI,740B02,862524060786163,GV350CEU,,10,10,1,0.0,0,683.1,46.764443,24.818146,20250821072739</t>
+  </si>
+  <si>
+    <t>Use test client: cumulocity-dynamic-mapper/dynamic-mapper-service/src/test/java/dynamic/mapping/ProtobufMqttClient.java to create a new measurement for bus "berlin_01"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Use test client: cumulocity-dynamic-mapper/dynamic-mapper-extension/src/test/java/dynamic/mapping/ProtobufMqttClient.java
+to create a new event for bus "berlin_01"</t>
+  </si>
+  <si>
+    <t>mappingTopic:        protobuf/measurement
+mappingTopicSample:  protobuf/measurement
+check: Use external id
+sub:
+Defined in cumulocity-dynamic-mapper/dynamic-mapper-service/src/main/java/dynamic/mapper/processor/processor/fixed/StaticProtobufProcessor.java</t>
+  </si>
+  <si>
+    <t>Send message in protobuf format:
+option java_package = "mqtt.mapping.processor.protobuf";
+option java_outer_classname = "MeasurementProto";
+message CustomMeasurement {
+  int64 timestamp = 1;
+  float value = 2;
+  string unit = 3;
+  string externalIdType = 4;
+  string externalId = 5;
+  string measurementType = 6;
+}
+Use test client:  cumulocity-dynamic-mapper/dynamic-mapper-service/src/test/java/dynamic/mapping/ProtobufMqttClient.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mappingTopic:        protobuf/event
+mappingTopicSample:  protobuf/event
+check: Use external id
+sub:
+Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapper/processor/extension/external/ProcessorExtensionCustomEvent.java
+In selection: Extensions for PROCESSOR_EXTENSION
+choose:
+  dynamic-mapper-extension
+In selection: Events for dynamic-mapper-extension
+choose:
+  CustomEvent
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send message in protobuf format:
+syntax = "proto3";
+package processor.protobuf;
+option java_package = "mqtt.mapping.processor.extension.external";
+option java_outer_classname = "CustomEventOuter";
+message CustomEvent {
+  int64 timestamp = 1;
+  string txt = 2;
+  string unit = 3;
+  string externalIdType = 4;
+  string externalId = 5;
+  string eventType = 6;
+}
+Use test client:  cumulocity-dynamic-mapper/dynamic-mapper-extension/src/test/java/dynamic/mapping/ProtobufMqttClient.java
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mappingTopic:       measurementExt
+mappingTopicSample: measurementExt
+mapppingType: Processor Extension Source
+check: Use external id
+sub:
+Extension for PROCESSOR_EXTENSION_SOURCE: dynamic-mapper-externsion
+Events for dynamic-mapper-extension: CustomMeasurement
+Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomMeasurement.java
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mappingTopic:       extension/source_target
+mappingTopicSample: extension/source_target
+check: Use external id
+Extensions for Processor Extension Source Target:
+select 
+Events for:
+select
+Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomAlarm.java
+</t>
   </si>
 </sst>
 </file>
@@ -1691,8 +1691,8 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -2056,295 +2056,295 @@
         <v>78</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="332" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="252" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="168" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11061,7 +11061,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
@@ -11142,19 +11142,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="210" x14ac:dyDescent="0.2">
@@ -11165,111 +11165,111 @@
         <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="224" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="224" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="280" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="384" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
